--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_12_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_12_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52219.87462788758</v>
+        <v>10391755.05094961</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52219.87462788758</v>
+        <v>10391755.05094961</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5871.350444632311</v>
+        <v>749149.6590727934</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5871.350444632311</v>
+        <v>749149.6590727934</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418963519.015576</v>
+        <v>57837332.18299816</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11714.45996277147</v>
+        <v>1278683.544880169</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22703.63880804085</v>
+        <v>2443607.307187818</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33692.81765331023</v>
+        <v>3608531.069495469</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45086.54489516163</v>
+        <v>4786503.442712211</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56414.70122792211</v>
+        <v>5951427.205019862</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67742.85756068259</v>
+        <v>7116350.967327512</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>79071.01389344307</v>
+        <v>8281274.729635158</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90399.17022620354</v>
+        <v>9446198.491942802</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101727.326558964</v>
+        <v>10611122.25425045</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>113055.4828917245</v>
+        <v>11776046.01655809</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>124383.639224485</v>
+        <v>12940969.77886575</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>135338.9582105562</v>
+        <v>14092844.93026432</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>146359.8481057184</v>
+        <v>15257768.69257197</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>158381.1892968592</v>
+        <v>16284099.76795116</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>170402.5304879999</v>
+        <v>17310430.84333035</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>350</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,19 +27147,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>138</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
